--- a/backend/src/excel_handler/files/CGPA2.xlsx
+++ b/backend/src/excel_handler/files/CGPA2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>23-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>46043.02</v>
+        <v>434814.52</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>46043.02</v>
+        <v>144938.17</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,27 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>46043.02</v>
+        <v>46077.97</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Delta Recursos</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>340736.25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Delta Select</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>48000.3</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CGPA2.xlsx
+++ b/backend/src/excel_handler/files/CGPA2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,58 +436,78 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>23-12-2022</t>
+          <t>30-12-2022</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>434814.52</v>
+        <v>45697.5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>45696.49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Delta Recursos</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>144938.17</v>
+        <v>340578.7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>340021.01</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>46077.97</v>
+        <v>48920.65</v>
+      </c>
+      <c r="C4" t="n">
+        <v>47985.63</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>340736.25</v>
+        <v>145065.62</v>
+      </c>
+      <c r="C5" t="n">
+        <v>144567.71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>48000.3</v>
+        <v>435196.85</v>
+      </c>
+      <c r="C6" t="n">
+        <v>433703.13</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CGPA2.xlsx
+++ b/backend/src/excel_handler/files/CGPA2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,6 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>30-12-2022</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>06-01-2023</t>
         </is>
       </c>
@@ -448,66 +443,51 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>45697.5</v>
-      </c>
-      <c r="C2" t="n">
-        <v>45696.49</v>
+        <v>433703.13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>340578.7</v>
-      </c>
-      <c r="C3" t="n">
-        <v>340021.01</v>
+        <v>144567.71</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48920.65</v>
-      </c>
-      <c r="C4" t="n">
-        <v>47985.63</v>
+        <v>45696.49</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Delta Recursos Naturales</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>145065.62</v>
-      </c>
-      <c r="C5" t="n">
-        <v>144567.71</v>
+        <v>340021.01</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>435196.85</v>
-      </c>
-      <c r="C6" t="n">
-        <v>433703.13</v>
+        <v>47985.63</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CGPA2.xlsx
+++ b/backend/src/excel_handler/files/CGPA2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,55 +439,75 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>433703.13</v>
+        <v>45696.49</v>
+      </c>
+      <c r="C2" t="n">
+        <v>46285.36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Delta Recursos Naturales</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>144567.71</v>
+        <v>340021.01</v>
+      </c>
+      <c r="C3" t="n">
+        <v>339657.57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>45696.49</v>
+        <v>47985.63</v>
+      </c>
+      <c r="C4" t="n">
+        <v>47262.34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos Naturales</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>340021.01</v>
+        <v>144567.71</v>
+      </c>
+      <c r="C5" t="n">
+        <v>144401.76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>47985.63</v>
+        <v>433703.13</v>
+      </c>
+      <c r="C6" t="n">
+        <v>433205.27</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CGPA2.xlsx
+++ b/backend/src/excel_handler/files/CGPA2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>13-01-2023</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -457,6 +462,9 @@
       <c r="C2" t="n">
         <v>46285.36</v>
       </c>
+      <c r="D2" t="n">
+        <v>46524.19</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -470,6 +478,9 @@
       <c r="C3" t="n">
         <v>339657.57</v>
       </c>
+      <c r="D3" t="n">
+        <v>339925.64</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -483,6 +494,9 @@
       <c r="C4" t="n">
         <v>47262.34</v>
       </c>
+      <c r="D4" t="n">
+        <v>47595.11</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -496,6 +510,9 @@
       <c r="C5" t="n">
         <v>144401.76</v>
       </c>
+      <c r="D5" t="n">
+        <v>144681.65</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -508,6 +525,9 @@
       </c>
       <c r="C6" t="n">
         <v>433205.27</v>
+      </c>
+      <c r="D6" t="n">
+        <v>434044.94</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CGPA2.xlsx
+++ b/backend/src/excel_handler/files/CGPA2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>20-01-2023</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -465,6 +470,9 @@
       <c r="D2" t="n">
         <v>46524.19</v>
       </c>
+      <c r="E2" t="n">
+        <v>45955.65</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -481,6 +489,9 @@
       <c r="D3" t="n">
         <v>339925.64</v>
       </c>
+      <c r="E3" t="n">
+        <v>340255.75</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -497,6 +508,9 @@
       <c r="D4" t="n">
         <v>47595.11</v>
       </c>
+      <c r="E4" t="n">
+        <v>48421.51</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -513,6 +527,9 @@
       <c r="D5" t="n">
         <v>144681.65</v>
       </c>
+      <c r="E5" t="n">
+        <v>144877.64</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -528,6 +545,9 @@
       </c>
       <c r="D6" t="n">
         <v>434044.94</v>
+      </c>
+      <c r="E6" t="n">
+        <v>434632.91</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CGPA2.xlsx
+++ b/backend/src/excel_handler/files/CGPA2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>27-01-2023</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -473,6 +478,9 @@
       <c r="E2" t="n">
         <v>45955.65</v>
       </c>
+      <c r="F2" t="n">
+        <v>46002.27</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -492,6 +500,9 @@
       <c r="E3" t="n">
         <v>340255.75</v>
       </c>
+      <c r="F3" t="n">
+        <v>340465.78</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -511,6 +522,9 @@
       <c r="E4" t="n">
         <v>48421.51</v>
       </c>
+      <c r="F4" t="n">
+        <v>48435.68</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -530,6 +544,9 @@
       <c r="E5" t="n">
         <v>144877.64</v>
       </c>
+      <c r="F5" t="n">
+        <v>144967.91</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -548,6 +565,9 @@
       </c>
       <c r="E6" t="n">
         <v>434632.91</v>
+      </c>
+      <c r="F6" t="n">
+        <v>434903.73</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CGPA2.xlsx
+++ b/backend/src/excel_handler/files/CGPA2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>03-02-2023</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -481,6 +486,9 @@
       <c r="F2" t="n">
         <v>46002.27</v>
       </c>
+      <c r="G2" t="n">
+        <v>45687.21</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -503,6 +511,9 @@
       <c r="F3" t="n">
         <v>340465.78</v>
       </c>
+      <c r="G3" t="n">
+        <v>339941.07</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -525,6 +536,9 @@
       <c r="F4" t="n">
         <v>48435.68</v>
       </c>
+      <c r="G4" t="n">
+        <v>47557.74</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -547,6 +561,9 @@
       <c r="F5" t="n">
         <v>144967.91</v>
       </c>
+      <c r="G5" t="n">
+        <v>144395.34</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -568,6 +585,9 @@
       </c>
       <c r="F6" t="n">
         <v>434903.73</v>
+      </c>
+      <c r="G6" t="n">
+        <v>433186.02</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CGPA2.xlsx
+++ b/backend/src/excel_handler/files/CGPA2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>10-02-2023</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>45687.21</v>
       </c>
+      <c r="H2" t="n">
+        <v>45578.36</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -514,6 +522,9 @@
       <c r="G3" t="n">
         <v>339941.07</v>
       </c>
+      <c r="H3" t="n">
+        <v>339825.04</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -539,6 +550,9 @@
       <c r="G4" t="n">
         <v>47557.74</v>
       </c>
+      <c r="H4" t="n">
+        <v>47374.34</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -564,6 +578,9 @@
       <c r="G5" t="n">
         <v>144395.34</v>
       </c>
+      <c r="H5" t="n">
+        <v>144259.25</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -588,6 +605,9 @@
       </c>
       <c r="G6" t="n">
         <v>433186.02</v>
+      </c>
+      <c r="H6" t="n">
+        <v>432777.74</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CGPA2.xlsx
+++ b/backend/src/excel_handler/files/CGPA2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>17-02-2023</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -497,6 +502,9 @@
       <c r="H2" t="n">
         <v>45578.36</v>
       </c>
+      <c r="I2" t="n">
+        <v>46076.61</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -525,6 +533,9 @@
       <c r="H3" t="n">
         <v>339825.04</v>
       </c>
+      <c r="I3" t="n">
+        <v>340355.29</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -553,6 +564,9 @@
       <c r="H4" t="n">
         <v>47374.34</v>
       </c>
+      <c r="I4" t="n">
+        <v>47817.41</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -581,6 +595,9 @@
       <c r="H5" t="n">
         <v>144259.25</v>
       </c>
+      <c r="I5" t="n">
+        <v>144749.77</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -608,6 +625,9 @@
       </c>
       <c r="H6" t="n">
         <v>432777.74</v>
+      </c>
+      <c r="I6" t="n">
+        <v>434249.31</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CGPA2.xlsx
+++ b/backend/src/excel_handler/files/CGPA2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>24-02-2023</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -505,6 +510,9 @@
       <c r="I2" t="n">
         <v>46076.61</v>
       </c>
+      <c r="J2" t="n">
+        <v>45909.32</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -536,6 +544,9 @@
       <c r="I3" t="n">
         <v>340355.29</v>
       </c>
+      <c r="J3" t="n">
+        <v>337053.03</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -567,6 +578,9 @@
       <c r="I4" t="n">
         <v>47817.41</v>
       </c>
+      <c r="J4" t="n">
+        <v>46744.93</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -598,6 +612,9 @@
       <c r="I5" t="n">
         <v>144749.77</v>
       </c>
+      <c r="J5" t="n">
+        <v>143235.76</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -628,6 +645,9 @@
       </c>
       <c r="I6" t="n">
         <v>434249.31</v>
+      </c>
+      <c r="J6" t="n">
+        <v>429707.28</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CGPA2.xlsx
+++ b/backend/src/excel_handler/files/CGPA2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>03-03-2023</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -513,6 +518,9 @@
       <c r="J2" t="n">
         <v>45909.32</v>
       </c>
+      <c r="K2" t="n">
+        <v>46091</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -547,6 +555,9 @@
       <c r="J3" t="n">
         <v>337053.03</v>
       </c>
+      <c r="K3" t="n">
+        <v>336596.42</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -581,6 +592,9 @@
       <c r="J4" t="n">
         <v>46744.93</v>
       </c>
+      <c r="K4" t="n">
+        <v>46577.18</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -615,6 +629,9 @@
       <c r="J5" t="n">
         <v>143235.76</v>
       </c>
+      <c r="K5" t="n">
+        <v>143088.2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -648,6 +665,9 @@
       </c>
       <c r="J6" t="n">
         <v>429707.28</v>
+      </c>
+      <c r="K6" t="n">
+        <v>429264.6</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CGPA2.xlsx
+++ b/backend/src/excel_handler/files/CGPA2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>10-03-2023</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -521,6 +526,9 @@
       <c r="K2" t="n">
         <v>46091</v>
       </c>
+      <c r="L2" t="n">
+        <v>46024.22</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -558,6 +566,9 @@
       <c r="K3" t="n">
         <v>336596.42</v>
       </c>
+      <c r="L3" t="n">
+        <v>336239.36</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -595,6 +606,9 @@
       <c r="K4" t="n">
         <v>46577.18</v>
       </c>
+      <c r="L4" t="n">
+        <v>46368.74</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -632,6 +646,9 @@
       <c r="K5" t="n">
         <v>143088.2</v>
       </c>
+      <c r="L5" t="n">
+        <v>142877.44</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -668,6 +685,9 @@
       </c>
       <c r="K6" t="n">
         <v>429264.6</v>
+      </c>
+      <c r="L6" t="n">
+        <v>428632.32</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CGPA2.xlsx
+++ b/backend/src/excel_handler/files/CGPA2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,11 @@
           <t>17-03-2023</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>23-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -529,6 +534,9 @@
       <c r="L2" t="n">
         <v>46024.22</v>
       </c>
+      <c r="M2" t="n">
+        <v>46065.08</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -569,6 +577,9 @@
       <c r="L3" t="n">
         <v>336239.36</v>
       </c>
+      <c r="M3" t="n">
+        <v>336353.49</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -609,6 +620,9 @@
       <c r="L4" t="n">
         <v>46368.74</v>
       </c>
+      <c r="M4" t="n">
+        <v>47906.91</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -649,6 +663,9 @@
       <c r="L5" t="n">
         <v>142877.44</v>
       </c>
+      <c r="M5" t="n">
+        <v>143441.83</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -688,6 +705,9 @@
       </c>
       <c r="L6" t="n">
         <v>428632.32</v>
+      </c>
+      <c r="M6" t="n">
+        <v>430325.48</v>
       </c>
     </row>
   </sheetData>
